--- a/data/Vol_BL3.xlsx
+++ b/data/Vol_BL3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="33">
   <si>
     <t>Сезон</t>
   </si>
@@ -35,21 +35,6 @@
   </si>
   <si>
     <t>Условное наименование ПОр</t>
-  </si>
-  <si>
-    <r>
-      <t>КПР -1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> «Волгоградское+Блок 3» МВт/ступень</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Описание ремонтной схемы / </t>
@@ -91,21 +76,6 @@
     <t>Ремонт ВЛ 500 кВ Волжская ГЭС – Волга (Р131)</t>
   </si>
   <si>
-    <r>
-      <t>КПР -2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>«Волгоградское+Блок 3» МВт/ступень</t>
-    </r>
-  </si>
-  <si>
     <t>Ремонт ВЛ 500 кВ Балаковская АЭС – Трубная (Р89)</t>
   </si>
   <si>
@@ -142,19 +112,16 @@
     <t xml:space="preserve">Описание ремонтной схемы / № </t>
   </si>
   <si>
-    <r>
-      <t>КПР -2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> «Волгоградское+Блок 3» МВт/ступень</t>
-    </r>
+    <t>Количество Блоков Ростовской АЭС находящихся в работе</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>КПР-1 «Волгоградское+Блок 3» МВт/ступень</t>
+  </si>
+  <si>
+    <t>КПР-2 «Волгоградское+Блок 3» МВт/ступень</t>
   </si>
 </sst>
 </file>
@@ -333,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -432,6 +399,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -741,31 +711,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="30" t="s">
+        <v>31</v>
+      </c>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
@@ -795,228 +767,233 @@
       <c r="AF1" s="31"/>
       <c r="AG1" s="31"/>
       <c r="AH1" s="31"/>
-      <c r="AI1" s="32"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="32"/>
     </row>
-    <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="3">
+      <c r="D2" s="29"/>
+      <c r="E2" s="3">
         <v>1750</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>1800</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>1850</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>1900</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>1950</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>2000</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>2050</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>2100</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>2150</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>2200</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>2250</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>2300</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>2350</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>2400</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>2450</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
         <v>2500</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="3">
         <v>2550</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2" s="3">
         <v>2600</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W2" s="3">
         <v>2650</v>
       </c>
-      <c r="W2" s="3">
+      <c r="X2" s="3">
         <v>2700</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Y2" s="3">
         <v>2750</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Z2" s="3">
         <v>2800</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <v>2850</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB2" s="3">
         <v>2900</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AC2" s="3">
         <v>2950</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AD2" s="3">
         <v>3000</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AE2" s="3">
         <v>3050</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AF2" s="3">
         <v>3100</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AG2" s="3">
         <v>3150</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AH2" s="3">
         <v>3200</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AI2" s="3">
         <v>3250</v>
       </c>
-      <c r="AI2" s="15">
+      <c r="AJ2" s="15">
         <v>3300</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12">
-        <v>3</v>
-      </c>
-      <c r="G3" s="12">
-        <v>4</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="J3" s="12">
+        <v>6</v>
+      </c>
+      <c r="K3" s="12">
+        <v>7</v>
+      </c>
+      <c r="L3" s="12">
+        <v>8</v>
+      </c>
+      <c r="M3" s="12">
+        <v>9</v>
+      </c>
+      <c r="N3" s="12">
+        <v>10</v>
+      </c>
+      <c r="O3" s="12">
+        <v>11</v>
+      </c>
+      <c r="P3" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>13</v>
+      </c>
+      <c r="R3" s="12">
+        <v>14</v>
+      </c>
+      <c r="S3" s="12">
+        <v>15</v>
+      </c>
+      <c r="T3" s="12">
+        <v>16</v>
+      </c>
+      <c r="U3" s="12">
+        <v>17</v>
+      </c>
+      <c r="V3" s="12">
+        <v>18</v>
+      </c>
+      <c r="W3" s="12">
+        <v>19</v>
+      </c>
+      <c r="X3" s="12">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="12">
+        <v>31</v>
+      </c>
+      <c r="AJ3" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="12">
-        <v>6</v>
-      </c>
-      <c r="J3" s="12">
-        <v>7</v>
-      </c>
-      <c r="K3" s="12">
-        <v>8</v>
-      </c>
-      <c r="L3" s="12">
-        <v>9</v>
-      </c>
-      <c r="M3" s="12">
-        <v>10</v>
-      </c>
-      <c r="N3" s="12">
-        <v>11</v>
-      </c>
-      <c r="O3" s="12">
-        <v>12</v>
-      </c>
-      <c r="P3" s="12">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>14</v>
-      </c>
-      <c r="R3" s="12">
-        <v>15</v>
-      </c>
-      <c r="S3" s="12">
-        <v>16</v>
-      </c>
-      <c r="T3" s="12">
-        <v>17</v>
-      </c>
-      <c r="U3" s="12">
-        <v>18</v>
-      </c>
-      <c r="V3" s="12">
-        <v>19</v>
-      </c>
-      <c r="W3" s="12">
-        <v>20</v>
-      </c>
-      <c r="X3" s="12">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="12">
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6">
         <v>22</v>
       </c>
-      <c r="Z3" s="12">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="12">
-        <v>24</v>
-      </c>
-      <c r="AB3" s="12">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="12">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="12">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="12">
-        <v>28</v>
-      </c>
-      <c r="AF3" s="12">
-        <v>29</v>
-      </c>
-      <c r="AG3" s="12">
-        <v>30</v>
-      </c>
-      <c r="AH3" s="12">
-        <v>31</v>
-      </c>
-      <c r="AI3" s="13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1025,66 +1002,69 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="6"/>
+      <c r="P4" s="8"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="9">
+      <c r="V4" s="6"/>
+      <c r="W4" s="9">
         <v>1</v>
       </c>
-      <c r="W4" s="9">
+      <c r="X4" s="9">
         <v>2</v>
       </c>
-      <c r="X4" s="9">
+      <c r="Y4" s="9">
         <v>3</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Z4" s="9">
         <v>4</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="AA4" s="9">
         <v>5</v>
       </c>
-      <c r="AA4" s="9">
-        <v>6</v>
-      </c>
       <c r="AB4" s="9">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="9">
         <v>7</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AD4" s="9">
         <v>8</v>
       </c>
-      <c r="AD4" s="9">
+      <c r="AE4" s="9">
         <v>9</v>
       </c>
-      <c r="AE4" s="9">
+      <c r="AF4" s="9">
         <v>10</v>
       </c>
-      <c r="AF4" s="9">
+      <c r="AG4" s="9">
         <v>11</v>
       </c>
-      <c r="AG4" s="9">
+      <c r="AH4" s="9">
         <v>12</v>
       </c>
-      <c r="AH4" s="9">
+      <c r="AI4" s="9">
         <v>13</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AJ4" s="16">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1092,51 +1072,49 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="10">
+      <c r="L5" s="6"/>
+      <c r="M5" s="10">
         <v>1</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>2</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <v>3</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <v>4</v>
       </c>
-      <c r="P5" s="10">
+      <c r="Q5" s="10">
         <v>5</v>
       </c>
-      <c r="Q5" s="10">
-        <v>6</v>
-      </c>
       <c r="R5" s="10">
+        <v>6</v>
+      </c>
+      <c r="S5" s="10">
         <v>7</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10">
         <v>8</v>
       </c>
-      <c r="T5" s="10">
+      <c r="U5" s="10">
         <v>9</v>
       </c>
-      <c r="U5" s="9">
+      <c r="V5" s="9">
         <v>10</v>
       </c>
-      <c r="V5" s="9">
+      <c r="W5" s="9">
         <v>11</v>
       </c>
-      <c r="W5" s="9">
+      <c r="X5" s="9">
         <v>12</v>
       </c>
-      <c r="X5" s="9">
+      <c r="Y5" s="9">
         <v>13</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Z5" s="9">
         <v>14</v>
       </c>
-      <c r="Z5" s="10">
-        <v>15</v>
-      </c>
       <c r="AA5" s="10">
         <v>15</v>
       </c>
@@ -1164,68 +1142,71 @@
       <c r="AI5" s="10">
         <v>15</v>
       </c>
+      <c r="AJ5" s="10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="10">
+      <c r="J6" s="6"/>
+      <c r="K6" s="10">
         <v>1</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>2</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>3</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="10">
         <v>4</v>
       </c>
-      <c r="N6" s="10">
+      <c r="O6" s="10">
         <v>5</v>
       </c>
-      <c r="O6" s="10">
-        <v>6</v>
-      </c>
       <c r="P6" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="10">
         <v>7</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="R6" s="10">
         <v>8</v>
       </c>
-      <c r="R6" s="9">
+      <c r="S6" s="9">
         <v>9</v>
       </c>
-      <c r="S6" s="9">
+      <c r="T6" s="9">
         <v>10</v>
       </c>
-      <c r="T6" s="9">
+      <c r="U6" s="9">
         <v>11</v>
       </c>
-      <c r="U6" s="9">
+      <c r="V6" s="9">
         <v>12</v>
       </c>
-      <c r="V6" s="9">
+      <c r="W6" s="9">
         <v>13</v>
       </c>
-      <c r="W6" s="9">
+      <c r="X6" s="9">
         <v>14</v>
       </c>
-      <c r="X6" s="10">
-        <v>15</v>
-      </c>
       <c r="Y6" s="10">
         <v>15</v>
       </c>
@@ -1259,18 +1240,23 @@
       <c r="AI6" s="10">
         <v>15</v>
       </c>
+      <c r="AJ6" s="10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
         <v>22</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1284,70 +1270,73 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="19">
+      <c r="R7" s="1"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19">
         <v>1</v>
       </c>
-      <c r="T7" s="19">
+      <c r="U7" s="19">
         <v>2</v>
       </c>
-      <c r="U7" s="19">
+      <c r="V7" s="19">
         <v>3</v>
       </c>
-      <c r="V7" s="19">
+      <c r="W7" s="19">
         <v>4</v>
       </c>
-      <c r="W7" s="19">
+      <c r="X7" s="19">
         <v>5</v>
       </c>
-      <c r="X7" s="19">
-        <v>6</v>
-      </c>
       <c r="Y7" s="19">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="19">
         <v>7</v>
       </c>
-      <c r="Z7" s="19">
+      <c r="AA7" s="19">
         <v>8</v>
       </c>
-      <c r="AA7" s="20">
+      <c r="AB7" s="20">
         <v>9</v>
       </c>
-      <c r="AB7" s="20">
+      <c r="AC7" s="20">
         <v>10</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="AD7" s="20">
         <v>11</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AE7" s="20">
         <v>12</v>
       </c>
-      <c r="AE7" s="20">
+      <c r="AF7" s="20">
         <v>13</v>
       </c>
-      <c r="AF7" s="20">
+      <c r="AG7" s="20">
         <v>14</v>
       </c>
-      <c r="AG7" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH7" s="10">
+      <c r="AH7" s="19">
         <v>15</v>
       </c>
       <c r="AI7" s="10">
         <v>15</v>
       </c>
+      <c r="AJ7" s="10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
         <v>22</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1361,217 +1350,221 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="18"/>
+      <c r="R8" s="1"/>
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
-      <c r="V8" s="19">
+      <c r="V8" s="18"/>
+      <c r="W8" s="19">
         <v>1</v>
       </c>
-      <c r="W8" s="19">
+      <c r="X8" s="19">
         <v>2</v>
       </c>
-      <c r="X8" s="19">
+      <c r="Y8" s="19">
         <v>3</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="Z8" s="19">
         <v>4</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AA8" s="19">
         <v>5</v>
       </c>
-      <c r="AA8" s="19">
-        <v>6</v>
-      </c>
       <c r="AB8" s="19">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="19">
         <v>7</v>
       </c>
-      <c r="AC8" s="19">
+      <c r="AD8" s="19">
         <v>8</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AE8" s="20">
         <v>9</v>
       </c>
-      <c r="AE8" s="20">
+      <c r="AF8" s="20">
         <v>10</v>
       </c>
-      <c r="AF8" s="20">
+      <c r="AG8" s="20">
         <v>11</v>
       </c>
-      <c r="AG8" s="20">
+      <c r="AH8" s="20">
         <v>12</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AI8" s="20">
         <v>13</v>
       </c>
-      <c r="AI8" s="21">
+      <c r="AJ8" s="21">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10">
+        <v>3</v>
+      </c>
+      <c r="J9" s="10">
+        <v>4</v>
+      </c>
+      <c r="K9" s="10">
+        <v>5</v>
+      </c>
+      <c r="L9" s="10">
+        <v>6</v>
+      </c>
+      <c r="M9" s="10">
+        <v>7</v>
+      </c>
+      <c r="N9" s="10">
+        <v>8</v>
+      </c>
+      <c r="O9" s="10">
+        <v>9</v>
+      </c>
+      <c r="P9" s="9">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
+      <c r="Q9" s="9">
+        <v>11</v>
+      </c>
+      <c r="R9" s="9">
+        <v>12</v>
+      </c>
+      <c r="S9" s="9">
+        <v>13</v>
+      </c>
+      <c r="T9" s="9">
+        <v>14</v>
+      </c>
+      <c r="U9" s="10">
+        <v>15</v>
+      </c>
+      <c r="V9" s="10">
+        <v>15</v>
+      </c>
+      <c r="W9" s="10">
+        <v>15</v>
+      </c>
+      <c r="X9" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>15</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>15</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>15</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>15</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>15</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>15</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>15</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>15</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>15</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>15</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6">
         <v>22</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10">
-        <v>3</v>
-      </c>
-      <c r="I9" s="10">
-        <v>4</v>
-      </c>
-      <c r="J9" s="10">
-        <v>5</v>
-      </c>
-      <c r="K9" s="10">
-        <v>6</v>
-      </c>
-      <c r="L9" s="10">
-        <v>7</v>
-      </c>
-      <c r="M9" s="10">
-        <v>8</v>
-      </c>
-      <c r="N9" s="10">
-        <v>9</v>
-      </c>
-      <c r="O9" s="9">
-        <v>10</v>
-      </c>
-      <c r="P9" s="9">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>12</v>
-      </c>
-      <c r="R9" s="9">
-        <v>13</v>
-      </c>
-      <c r="S9" s="9">
-        <v>14</v>
-      </c>
-      <c r="T9" s="10">
-        <v>15</v>
-      </c>
-      <c r="U9" s="10">
-        <v>15</v>
-      </c>
-      <c r="V9" s="10">
-        <v>15</v>
-      </c>
-      <c r="W9" s="10">
-        <v>15</v>
-      </c>
-      <c r="X9" s="10">
-        <v>15</v>
-      </c>
-      <c r="Y9" s="10">
-        <v>15</v>
-      </c>
-      <c r="Z9" s="10">
-        <v>15</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>15</v>
-      </c>
-      <c r="AB9" s="10">
-        <v>15</v>
-      </c>
-      <c r="AC9" s="10">
-        <v>15</v>
-      </c>
-      <c r="AD9" s="10">
-        <v>15</v>
-      </c>
-      <c r="AE9" s="10">
-        <v>15</v>
-      </c>
-      <c r="AF9" s="10">
-        <v>15</v>
-      </c>
-      <c r="AG9" s="10">
-        <v>15</v>
-      </c>
-      <c r="AH9" s="10">
-        <v>15</v>
-      </c>
-      <c r="AI9" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="10">
+      <c r="J10" s="6"/>
+      <c r="K10" s="10">
         <v>1</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="10">
         <v>2</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <v>3</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <v>4</v>
       </c>
-      <c r="N10" s="10">
+      <c r="O10" s="10">
         <v>5</v>
       </c>
-      <c r="O10" s="10">
-        <v>6</v>
-      </c>
       <c r="P10" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="10">
         <v>7</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="R10" s="10">
         <v>8</v>
       </c>
-      <c r="R10" s="10">
+      <c r="S10" s="10">
         <v>9</v>
       </c>
-      <c r="S10" s="9">
+      <c r="T10" s="9">
         <v>10</v>
       </c>
-      <c r="T10" s="9">
+      <c r="U10" s="9">
         <v>11</v>
       </c>
-      <c r="U10" s="9">
+      <c r="V10" s="9">
         <v>12</v>
       </c>
-      <c r="V10" s="9">
+      <c r="W10" s="9">
         <v>13</v>
       </c>
-      <c r="W10" s="9">
+      <c r="X10" s="9">
         <v>14</v>
       </c>
-      <c r="X10" s="10">
-        <v>15</v>
-      </c>
       <c r="Y10" s="10">
         <v>15</v>
       </c>
@@ -1605,69 +1598,72 @@
       <c r="AI10" s="10">
         <v>15</v>
       </c>
+      <c r="AJ10" s="10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="10">
+      <c r="K11" s="6"/>
+      <c r="L11" s="10">
         <v>1</v>
       </c>
-      <c r="L11" s="10">
+      <c r="M11" s="10">
         <v>2</v>
       </c>
-      <c r="M11" s="10">
+      <c r="N11" s="10">
         <v>3</v>
       </c>
-      <c r="N11" s="10">
+      <c r="O11" s="10">
         <v>4</v>
       </c>
-      <c r="O11" s="10">
+      <c r="P11" s="10">
         <v>5</v>
       </c>
-      <c r="P11" s="10">
-        <v>6</v>
-      </c>
       <c r="Q11" s="10">
+        <v>6</v>
+      </c>
+      <c r="R11" s="10">
         <v>7</v>
       </c>
-      <c r="R11" s="10">
+      <c r="S11" s="10">
         <v>8</v>
       </c>
-      <c r="S11" s="10">
+      <c r="T11" s="10">
         <v>9</v>
       </c>
-      <c r="T11" s="9">
+      <c r="U11" s="9">
         <v>10</v>
       </c>
-      <c r="U11" s="9">
+      <c r="V11" s="9">
         <v>11</v>
       </c>
-      <c r="V11" s="9">
+      <c r="W11" s="9">
         <v>12</v>
       </c>
-      <c r="W11" s="9">
+      <c r="X11" s="9">
         <v>13</v>
       </c>
-      <c r="X11" s="9">
+      <c r="Y11" s="9">
         <v>14</v>
       </c>
-      <c r="Y11" s="10">
-        <v>15</v>
-      </c>
       <c r="Z11" s="10">
         <v>15</v>
       </c>
@@ -1698,173 +1694,179 @@
       <c r="AI11" s="10">
         <v>15</v>
       </c>
+      <c r="AJ11" s="10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4</v>
+      </c>
+      <c r="I12" s="10">
+        <v>5</v>
+      </c>
+      <c r="J12" s="10">
+        <v>6</v>
+      </c>
+      <c r="K12" s="10">
+        <v>7</v>
+      </c>
+      <c r="L12" s="10">
+        <v>8</v>
+      </c>
+      <c r="M12" s="10">
+        <v>9</v>
+      </c>
+      <c r="N12" s="9">
+        <v>10</v>
+      </c>
+      <c r="O12" s="9">
+        <v>11</v>
+      </c>
+      <c r="P12" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="9">
         <v>13</v>
       </c>
-      <c r="B12" s="6">
+      <c r="R12" s="9">
+        <v>14</v>
+      </c>
+      <c r="S12" s="10">
+        <v>15</v>
+      </c>
+      <c r="T12" s="10">
+        <v>15</v>
+      </c>
+      <c r="U12" s="10">
+        <v>15</v>
+      </c>
+      <c r="V12" s="10">
+        <v>15</v>
+      </c>
+      <c r="W12" s="10">
+        <v>15</v>
+      </c>
+      <c r="X12" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>15</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>15</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>15</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>15</v>
+      </c>
+      <c r="AE12" s="10">
+        <v>15</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>15</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>15</v>
+      </c>
+      <c r="AH12" s="10">
+        <v>15</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>15</v>
+      </c>
+      <c r="AJ12" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6">
         <v>22</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>2</v>
-      </c>
-      <c r="F12" s="10">
-        <v>3</v>
-      </c>
-      <c r="G12" s="10">
-        <v>4</v>
-      </c>
-      <c r="H12" s="10">
-        <v>5</v>
-      </c>
-      <c r="I12" s="10">
-        <v>6</v>
-      </c>
-      <c r="J12" s="10">
-        <v>7</v>
-      </c>
-      <c r="K12" s="10">
-        <v>8</v>
-      </c>
-      <c r="L12" s="10">
-        <v>9</v>
-      </c>
-      <c r="M12" s="9">
-        <v>10</v>
-      </c>
-      <c r="N12" s="9">
-        <v>11</v>
-      </c>
-      <c r="O12" s="9">
-        <v>12</v>
-      </c>
-      <c r="P12" s="9">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>14</v>
-      </c>
-      <c r="R12" s="10">
-        <v>15</v>
-      </c>
-      <c r="S12" s="10">
-        <v>15</v>
-      </c>
-      <c r="T12" s="10">
-        <v>15</v>
-      </c>
-      <c r="U12" s="10">
-        <v>15</v>
-      </c>
-      <c r="V12" s="10">
-        <v>15</v>
-      </c>
-      <c r="W12" s="10">
-        <v>15</v>
-      </c>
-      <c r="X12" s="10">
-        <v>15</v>
-      </c>
-      <c r="Y12" s="10">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="10">
-        <v>15</v>
-      </c>
-      <c r="AA12" s="10">
-        <v>15</v>
-      </c>
-      <c r="AB12" s="10">
-        <v>15</v>
-      </c>
-      <c r="AC12" s="10">
-        <v>15</v>
-      </c>
-      <c r="AD12" s="10">
-        <v>15</v>
-      </c>
-      <c r="AE12" s="10">
-        <v>15</v>
-      </c>
-      <c r="AF12" s="10">
-        <v>15</v>
-      </c>
-      <c r="AG12" s="10">
-        <v>15</v>
-      </c>
-      <c r="AH12" s="10">
-        <v>15</v>
-      </c>
-      <c r="AI12" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="10">
+      <c r="H13" s="6"/>
+      <c r="I13" s="10">
         <v>1</v>
       </c>
-      <c r="I13" s="10">
+      <c r="J13" s="10">
         <v>2</v>
       </c>
-      <c r="J13" s="10">
+      <c r="K13" s="10">
         <v>3</v>
       </c>
-      <c r="K13" s="10">
+      <c r="L13" s="10">
         <v>4</v>
       </c>
-      <c r="L13" s="10">
+      <c r="M13" s="10">
         <v>5</v>
       </c>
-      <c r="M13" s="10">
-        <v>6</v>
-      </c>
       <c r="N13" s="10">
+        <v>6</v>
+      </c>
+      <c r="O13" s="10">
         <v>7</v>
       </c>
-      <c r="O13" s="10">
+      <c r="P13" s="10">
         <v>8</v>
       </c>
-      <c r="P13" s="10">
+      <c r="Q13" s="10">
         <v>9</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="R13" s="9">
         <v>10</v>
       </c>
-      <c r="R13" s="9">
+      <c r="S13" s="9">
         <v>11</v>
       </c>
-      <c r="S13" s="9">
+      <c r="T13" s="9">
         <v>12</v>
       </c>
-      <c r="T13" s="9">
+      <c r="U13" s="9">
         <v>13</v>
       </c>
-      <c r="U13" s="9">
+      <c r="V13" s="9">
         <v>14</v>
       </c>
-      <c r="V13" s="10">
-        <v>15</v>
-      </c>
       <c r="W13" s="10">
         <v>15</v>
       </c>
@@ -1904,67 +1906,70 @@
       <c r="AI13" s="10">
         <v>15</v>
       </c>
+      <c r="AJ13" s="10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6">
         <v>22</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="10">
+      <c r="I14" s="6"/>
+      <c r="J14" s="10">
         <v>1</v>
       </c>
-      <c r="J14" s="10">
+      <c r="K14" s="10">
         <v>2</v>
       </c>
-      <c r="K14" s="10">
+      <c r="L14" s="10">
         <v>3</v>
       </c>
-      <c r="L14" s="10">
+      <c r="M14" s="10">
         <v>4</v>
       </c>
-      <c r="M14" s="10">
+      <c r="N14" s="10">
         <v>5</v>
       </c>
-      <c r="N14" s="10">
-        <v>6</v>
-      </c>
       <c r="O14" s="10">
+        <v>6</v>
+      </c>
+      <c r="P14" s="10">
         <v>7</v>
       </c>
-      <c r="P14" s="10">
+      <c r="Q14" s="10">
         <v>8</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="R14" s="10">
         <v>9</v>
       </c>
-      <c r="R14" s="9">
+      <c r="S14" s="9">
         <v>10</v>
       </c>
-      <c r="S14" s="9">
+      <c r="T14" s="9">
         <v>11</v>
       </c>
-      <c r="T14" s="9">
+      <c r="U14" s="9">
         <v>12</v>
       </c>
-      <c r="U14" s="9">
+      <c r="V14" s="9">
         <v>13</v>
       </c>
-      <c r="V14" s="9">
+      <c r="W14" s="9">
         <v>14</v>
       </c>
-      <c r="W14" s="10">
-        <v>15</v>
-      </c>
       <c r="X14" s="10">
         <v>15</v>
       </c>
@@ -1999,14 +2004,18 @@
         <v>15</v>
       </c>
       <c r="AI14" s="10">
+        <v>15</v>
+      </c>
+      <c r="AJ14" s="10">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:AJ1"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2015,31 +2024,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="1" max="2" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
@@ -2069,223 +2080,228 @@
       <c r="AF1" s="31"/>
       <c r="AG1" s="31"/>
       <c r="AH1" s="31"/>
-      <c r="AI1" s="32"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="32"/>
     </row>
-    <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="29"/>
+    <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="3">
+      <c r="D2" s="29"/>
+      <c r="E2" s="3">
         <v>800</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>850</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>900</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>950</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>1000</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>1050</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>1100</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>1150</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>1200</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>1250</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>1300</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>1350</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>1400</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>1450</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>1500</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
         <v>1550</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="3">
         <v>1600</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2" s="3">
         <v>1650</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W2" s="3">
         <v>1700</v>
       </c>
-      <c r="W2" s="3">
+      <c r="X2" s="3">
         <v>1750</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Y2" s="3">
         <v>1800</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Z2" s="3">
         <v>1850</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <v>1900</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB2" s="3">
         <v>1950</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AC2" s="3">
         <v>2000</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AD2" s="3">
         <v>2050</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AE2" s="3">
         <v>2100</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AF2" s="3">
         <v>2150</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AG2" s="3">
         <v>2200</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AH2" s="3">
         <v>2250</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AI2" s="3">
         <v>2300</v>
       </c>
-      <c r="AI2" s="15">
+      <c r="AJ2" s="15">
         <v>2350</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12">
+        <v>6</v>
+      </c>
+      <c r="K3" s="12">
+        <v>7</v>
+      </c>
+      <c r="L3" s="12">
+        <v>8</v>
+      </c>
+      <c r="M3" s="12">
+        <v>9</v>
+      </c>
+      <c r="N3" s="12">
+        <v>10</v>
+      </c>
+      <c r="O3" s="12">
+        <v>11</v>
+      </c>
+      <c r="P3" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>13</v>
+      </c>
+      <c r="R3" s="12">
+        <v>14</v>
+      </c>
+      <c r="S3" s="12">
+        <v>15</v>
+      </c>
+      <c r="T3" s="12">
+        <v>16</v>
+      </c>
+      <c r="U3" s="12">
+        <v>17</v>
+      </c>
+      <c r="V3" s="12">
+        <v>18</v>
+      </c>
+      <c r="W3" s="12">
+        <v>19</v>
+      </c>
+      <c r="X3" s="12">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="12">
         <v>28</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12">
-        <v>3</v>
-      </c>
-      <c r="G3" s="12">
-        <v>4</v>
-      </c>
-      <c r="H3" s="12">
-        <v>5</v>
-      </c>
-      <c r="I3" s="12">
-        <v>6</v>
-      </c>
-      <c r="J3" s="12">
-        <v>7</v>
-      </c>
-      <c r="K3" s="12">
-        <v>8</v>
-      </c>
-      <c r="L3" s="12">
-        <v>9</v>
-      </c>
-      <c r="M3" s="12">
-        <v>10</v>
-      </c>
-      <c r="N3" s="12">
-        <v>11</v>
-      </c>
-      <c r="O3" s="12">
-        <v>12</v>
-      </c>
-      <c r="P3" s="12">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>14</v>
-      </c>
-      <c r="R3" s="12">
-        <v>15</v>
-      </c>
-      <c r="S3" s="12">
-        <v>16</v>
-      </c>
-      <c r="T3" s="12">
+      <c r="AG3" s="22">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="12">
+        <v>31</v>
+      </c>
+      <c r="AJ3" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="12">
-        <v>18</v>
-      </c>
-      <c r="V3" s="12">
-        <v>19</v>
-      </c>
-      <c r="W3" s="12">
-        <v>20</v>
-      </c>
-      <c r="X3" s="12">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="12">
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6">
         <v>22</v>
       </c>
-      <c r="Z3" s="12">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="12">
-        <v>24</v>
-      </c>
-      <c r="AB3" s="12">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="12">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="12">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="12">
-        <v>28</v>
-      </c>
-      <c r="AF3" s="22">
-        <v>29</v>
-      </c>
-      <c r="AG3" s="12">
-        <v>30</v>
-      </c>
-      <c r="AH3" s="12">
-        <v>31</v>
-      </c>
-      <c r="AI3" s="13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2301,115 +2317,116 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="10">
+      <c r="T4" s="6"/>
+      <c r="U4" s="10">
         <v>1</v>
       </c>
-      <c r="U4" s="10">
+      <c r="V4" s="10">
         <v>2</v>
       </c>
-      <c r="V4" s="10">
+      <c r="W4" s="10">
         <v>3</v>
       </c>
-      <c r="W4" s="10">
+      <c r="X4" s="10">
         <v>4</v>
       </c>
-      <c r="X4" s="10">
+      <c r="Y4" s="10">
         <v>5</v>
       </c>
-      <c r="Y4" s="10">
-        <v>6</v>
-      </c>
       <c r="Z4" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="10">
         <v>7</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AB4" s="10">
         <v>8</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AC4" s="10">
         <v>9</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AD4" s="9">
         <v>10</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AE4" s="10">
         <v>11</v>
       </c>
-      <c r="AE4" s="10">
+      <c r="AF4" s="10">
         <v>12</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AG4" s="10">
         <v>13</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AH4" s="10">
         <v>14</v>
       </c>
-      <c r="AH4" s="10">
-        <v>15</v>
-      </c>
       <c r="AI4" s="10">
         <v>15</v>
       </c>
+      <c r="AJ4" s="10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="10">
+      <c r="I5" s="6"/>
+      <c r="J5" s="10">
         <v>1</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>2</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>3</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>4</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>5</v>
       </c>
-      <c r="N5" s="10">
-        <v>6</v>
-      </c>
       <c r="O5" s="10">
+        <v>6</v>
+      </c>
+      <c r="P5" s="10">
         <v>7</v>
       </c>
-      <c r="P5" s="10">
+      <c r="Q5" s="10">
         <v>8</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <v>9</v>
       </c>
-      <c r="R5" s="9">
+      <c r="S5" s="9">
         <v>10</v>
       </c>
-      <c r="S5" s="9">
+      <c r="T5" s="9">
         <v>11</v>
       </c>
-      <c r="T5" s="9">
+      <c r="U5" s="9">
         <v>12</v>
       </c>
-      <c r="U5" s="9">
+      <c r="V5" s="9">
         <v>13</v>
       </c>
-      <c r="V5" s="9">
+      <c r="W5" s="9">
         <v>14</v>
       </c>
-      <c r="W5" s="10">
-        <v>15</v>
-      </c>
       <c r="X5" s="10">
         <v>15</v>
       </c>
@@ -2446,66 +2463,69 @@
       <c r="AI5" s="10">
         <v>15</v>
       </c>
+      <c r="AJ5" s="10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="10">
+      <c r="H6" s="6"/>
+      <c r="I6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="10">
         <v>2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="10">
         <v>3</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>4</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>5</v>
       </c>
-      <c r="M6" s="10">
-        <v>6</v>
-      </c>
       <c r="N6" s="10">
+        <v>6</v>
+      </c>
+      <c r="O6" s="10">
         <v>7</v>
       </c>
-      <c r="O6" s="10">
+      <c r="P6" s="10">
         <v>8</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="10">
         <v>9</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="R6" s="9">
         <v>10</v>
       </c>
-      <c r="R6" s="9">
+      <c r="S6" s="9">
         <v>11</v>
       </c>
-      <c r="S6" s="9">
+      <c r="T6" s="9">
         <v>12</v>
       </c>
-      <c r="T6" s="9">
+      <c r="U6" s="9">
         <v>13</v>
       </c>
-      <c r="U6" s="9">
+      <c r="V6" s="9">
         <v>14</v>
       </c>
-      <c r="V6" s="10">
-        <v>15</v>
-      </c>
       <c r="W6" s="10">
         <v>15</v>
       </c>
@@ -2545,18 +2565,23 @@
       <c r="AI6" s="10">
         <v>15</v>
       </c>
+      <c r="AJ6" s="10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6">
         <v>22</v>
       </c>
-      <c r="B7" s="6">
-        <v>22</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2565,75 +2590,78 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="8"/>
+      <c r="M7" s="6"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="10">
+      <c r="R7" s="8"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="10">
         <v>1</v>
       </c>
-      <c r="T7" s="10">
+      <c r="U7" s="10">
         <v>2</v>
       </c>
-      <c r="U7" s="10">
+      <c r="V7" s="10">
         <v>3</v>
       </c>
-      <c r="V7" s="10">
+      <c r="W7" s="10">
         <v>4</v>
       </c>
-      <c r="W7" s="10">
+      <c r="X7" s="10">
         <v>5</v>
       </c>
-      <c r="X7" s="10">
-        <v>6</v>
-      </c>
       <c r="Y7" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="10">
         <v>7</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="AA7" s="10">
         <v>8</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AB7" s="10">
         <v>9</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AC7" s="9">
         <v>10</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AD7" s="9">
         <v>11</v>
       </c>
-      <c r="AD7" s="10">
+      <c r="AE7" s="10">
         <v>12</v>
       </c>
-      <c r="AE7" s="10">
+      <c r="AF7" s="10">
         <v>13</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AG7" s="10">
         <v>14</v>
       </c>
-      <c r="AG7" s="10">
-        <v>15</v>
-      </c>
       <c r="AH7" s="10">
         <v>15</v>
       </c>
       <c r="AI7" s="10">
         <v>15</v>
       </c>
+      <c r="AJ7" s="10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2642,117 +2670,118 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="8"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="6"/>
+      <c r="R8" s="8"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-      <c r="U8" s="10">
+      <c r="U8" s="6"/>
+      <c r="V8" s="10">
         <v>1</v>
       </c>
-      <c r="V8" s="10">
+      <c r="W8" s="10">
         <v>2</v>
       </c>
-      <c r="W8" s="10">
+      <c r="X8" s="10">
         <v>3</v>
       </c>
-      <c r="X8" s="10">
+      <c r="Y8" s="10">
         <v>4</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Z8" s="10">
         <v>5</v>
       </c>
-      <c r="Z8" s="10">
-        <v>6</v>
-      </c>
       <c r="AA8" s="10">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="10">
         <v>7</v>
       </c>
-      <c r="AB8" s="10">
+      <c r="AC8" s="10">
         <v>8</v>
       </c>
-      <c r="AC8" s="10">
+      <c r="AD8" s="10">
         <v>9</v>
       </c>
-      <c r="AD8" s="10">
+      <c r="AE8" s="10">
         <v>10</v>
       </c>
-      <c r="AE8" s="10">
+      <c r="AF8" s="10">
         <v>11</v>
       </c>
-      <c r="AF8" s="10">
+      <c r="AG8" s="10">
         <v>12</v>
       </c>
-      <c r="AG8" s="10">
+      <c r="AH8" s="10">
         <v>13</v>
       </c>
-      <c r="AH8" s="10">
+      <c r="AI8" s="10">
         <v>14</v>
       </c>
-      <c r="AI8" s="23">
+      <c r="AJ8" s="23">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6">
         <v>22</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10">
+        <v>3</v>
+      </c>
+      <c r="J9" s="10">
+        <v>4</v>
+      </c>
+      <c r="K9" s="10">
+        <v>5</v>
+      </c>
+      <c r="L9" s="10">
+        <v>6</v>
+      </c>
+      <c r="M9" s="10">
         <v>7</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10">
-        <v>3</v>
-      </c>
-      <c r="I9" s="10">
-        <v>4</v>
-      </c>
-      <c r="J9" s="10">
-        <v>5</v>
-      </c>
-      <c r="K9" s="10">
-        <v>6</v>
-      </c>
-      <c r="L9" s="10">
-        <v>7</v>
-      </c>
-      <c r="M9" s="9">
+      <c r="N9" s="9">
         <v>8</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <v>9</v>
       </c>
-      <c r="O9" s="9">
+      <c r="P9" s="9">
         <v>10</v>
       </c>
-      <c r="P9" s="9">
+      <c r="Q9" s="9">
         <v>11</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="R9" s="9">
         <v>12</v>
       </c>
-      <c r="R9" s="10">
+      <c r="S9" s="10">
         <v>13</v>
       </c>
-      <c r="S9" s="10">
+      <c r="T9" s="10">
         <v>14</v>
       </c>
-      <c r="T9" s="10">
-        <v>15</v>
-      </c>
       <c r="U9" s="10">
         <v>15</v>
       </c>
@@ -2798,18 +2827,23 @@
       <c r="AI9" s="10">
         <v>15</v>
       </c>
+      <c r="AJ9" s="10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2827,60 +2861,63 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="10">
+      <c r="V10" s="6"/>
+      <c r="W10" s="10">
         <v>1</v>
       </c>
-      <c r="W10" s="10">
+      <c r="X10" s="10">
         <v>2</v>
       </c>
-      <c r="X10" s="10">
+      <c r="Y10" s="10">
         <v>3</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Z10" s="10">
         <v>4</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="AA10" s="10">
         <v>5</v>
       </c>
-      <c r="AA10" s="10">
-        <v>6</v>
-      </c>
       <c r="AB10" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="10">
         <v>7</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AD10" s="10">
         <v>8</v>
       </c>
-      <c r="AD10" s="10">
+      <c r="AE10" s="10">
         <v>9</v>
       </c>
-      <c r="AE10" s="10">
+      <c r="AF10" s="10">
         <v>10</v>
       </c>
-      <c r="AF10" s="10">
+      <c r="AG10" s="10">
         <v>11</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AH10" s="10">
         <v>12</v>
       </c>
-      <c r="AH10" s="10">
+      <c r="AI10" s="10">
         <v>13</v>
       </c>
-      <c r="AI10" s="23">
+      <c r="AJ10" s="23">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -2896,61 +2933,63 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="10">
+      <c r="T11" s="6"/>
+      <c r="U11" s="10">
         <v>1</v>
       </c>
-      <c r="U11" s="10">
+      <c r="V11" s="10">
         <v>2</v>
       </c>
-      <c r="V11" s="10">
+      <c r="W11" s="10">
         <v>3</v>
       </c>
-      <c r="W11" s="10">
+      <c r="X11" s="10">
         <v>4</v>
       </c>
-      <c r="X11" s="10">
+      <c r="Y11" s="10">
         <v>5</v>
       </c>
-      <c r="Y11" s="10">
-        <v>6</v>
-      </c>
       <c r="Z11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="10">
         <v>7</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AB11" s="10">
         <v>8</v>
       </c>
-      <c r="AB11" s="10">
+      <c r="AC11" s="10">
         <v>9</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AD11" s="9">
         <v>10</v>
       </c>
-      <c r="AD11" s="10">
+      <c r="AE11" s="10">
         <v>11</v>
       </c>
-      <c r="AE11" s="10">
+      <c r="AF11" s="10">
         <v>12</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AG11" s="10">
         <v>13</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AH11" s="10">
         <v>14</v>
       </c>
-      <c r="AH11" s="10">
-        <v>15</v>
-      </c>
       <c r="AI11" s="10">
+        <v>15</v>
+      </c>
+      <c r="AJ11" s="10">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:AJ1"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:AI1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2958,31 +2997,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="1" max="2" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="30" t="s">
+        <v>31</v>
+      </c>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
@@ -3012,226 +3053,231 @@
       <c r="AF1" s="31"/>
       <c r="AG1" s="31"/>
       <c r="AH1" s="31"/>
-      <c r="AI1" s="32"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="32"/>
     </row>
-    <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="29"/>
+    <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="3">
+      <c r="D2" s="29"/>
+      <c r="E2" s="3">
         <v>1750</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>1800</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>1850</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>1900</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>1950</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>2000</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>2050</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>2100</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>2150</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>2200</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>2250</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>2300</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>2350</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>2400</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>2450</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
         <v>2500</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="3">
         <v>2550</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2" s="3">
         <v>2600</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W2" s="3">
         <v>2650</v>
       </c>
-      <c r="W2" s="3">
+      <c r="X2" s="3">
         <v>2700</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Y2" s="3">
         <v>2750</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Z2" s="3">
         <v>2800</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <v>2850</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB2" s="3">
         <v>2900</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AC2" s="3">
         <v>2950</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AD2" s="3">
         <v>3000</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AE2" s="3">
         <v>3050</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AF2" s="3">
         <v>3100</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AG2" s="3">
         <v>3150</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AH2" s="3">
         <v>3200</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AI2" s="3">
         <v>3250</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AJ2" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12">
+        <v>6</v>
+      </c>
+      <c r="K3" s="12">
+        <v>7</v>
+      </c>
+      <c r="L3" s="12">
+        <v>8</v>
+      </c>
+      <c r="M3" s="12">
+        <v>9</v>
+      </c>
+      <c r="N3" s="12">
+        <v>10</v>
+      </c>
+      <c r="O3" s="12">
+        <v>11</v>
+      </c>
+      <c r="P3" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>13</v>
+      </c>
+      <c r="R3" s="12">
+        <v>14</v>
+      </c>
+      <c r="S3" s="12">
+        <v>15</v>
+      </c>
+      <c r="T3" s="12">
+        <v>16</v>
+      </c>
+      <c r="U3" s="12">
+        <v>17</v>
+      </c>
+      <c r="V3" s="12">
+        <v>18</v>
+      </c>
+      <c r="W3" s="12">
+        <v>19</v>
+      </c>
+      <c r="X3" s="12">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="12">
         <v>30</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12">
-        <v>3</v>
-      </c>
-      <c r="G3" s="12">
-        <v>4</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="AI3" s="12">
+        <v>31</v>
+      </c>
+      <c r="AJ3" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="12">
-        <v>6</v>
-      </c>
-      <c r="J3" s="12">
-        <v>7</v>
-      </c>
-      <c r="K3" s="12">
-        <v>8</v>
-      </c>
-      <c r="L3" s="12">
-        <v>9</v>
-      </c>
-      <c r="M3" s="12">
-        <v>10</v>
-      </c>
-      <c r="N3" s="12">
-        <v>11</v>
-      </c>
-      <c r="O3" s="12">
-        <v>12</v>
-      </c>
-      <c r="P3" s="12">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>14</v>
-      </c>
-      <c r="R3" s="12">
-        <v>15</v>
-      </c>
-      <c r="S3" s="12">
-        <v>16</v>
-      </c>
-      <c r="T3" s="12">
-        <v>17</v>
-      </c>
-      <c r="U3" s="12">
-        <v>18</v>
-      </c>
-      <c r="V3" s="12">
-        <v>19</v>
-      </c>
-      <c r="W3" s="12">
-        <v>20</v>
-      </c>
-      <c r="X3" s="12">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="12">
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6">
         <v>22</v>
       </c>
-      <c r="Z3" s="12">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="12">
-        <v>24</v>
-      </c>
-      <c r="AB3" s="12">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="12">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="12">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="12">
-        <v>28</v>
-      </c>
-      <c r="AF3" s="12">
-        <v>29</v>
-      </c>
-      <c r="AG3" s="12">
-        <v>30</v>
-      </c>
-      <c r="AH3" s="12">
-        <v>31</v>
-      </c>
-      <c r="AI3" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -3240,66 +3286,69 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="6"/>
+      <c r="P4" s="8"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="24">
+      <c r="V4" s="6"/>
+      <c r="W4" s="24">
         <v>1</v>
       </c>
-      <c r="W4" s="24">
+      <c r="X4" s="24">
         <v>2</v>
       </c>
-      <c r="X4" s="24">
+      <c r="Y4" s="24">
         <v>3</v>
       </c>
-      <c r="Y4" s="24">
+      <c r="Z4" s="24">
         <v>4</v>
       </c>
-      <c r="Z4" s="24">
+      <c r="AA4" s="24">
         <v>5</v>
       </c>
-      <c r="AA4" s="24">
-        <v>6</v>
-      </c>
       <c r="AB4" s="24">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="24">
         <v>7</v>
       </c>
-      <c r="AC4" s="24">
+      <c r="AD4" s="24">
         <v>8</v>
       </c>
-      <c r="AD4" s="24">
+      <c r="AE4" s="24">
         <v>9</v>
       </c>
-      <c r="AE4" s="24">
+      <c r="AF4" s="24">
         <v>10</v>
       </c>
-      <c r="AF4" s="24">
+      <c r="AG4" s="24">
         <v>11</v>
       </c>
-      <c r="AG4" s="24">
+      <c r="AH4" s="24">
         <v>12</v>
       </c>
-      <c r="AH4" s="24">
+      <c r="AI4" s="24">
         <v>13</v>
       </c>
-      <c r="AI4" s="24">
+      <c r="AJ4" s="24">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -3307,63 +3356,61 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="25">
+      <c r="L5" s="6"/>
+      <c r="M5" s="25">
         <v>1</v>
       </c>
-      <c r="M5" s="25">
+      <c r="N5" s="25">
         <v>2</v>
       </c>
-      <c r="N5" s="25">
+      <c r="O5" s="25">
         <v>3</v>
       </c>
-      <c r="O5" s="25">
+      <c r="P5" s="25">
         <v>4</v>
       </c>
-      <c r="P5" s="25">
+      <c r="Q5" s="25">
         <v>5</v>
       </c>
-      <c r="Q5" s="25">
-        <v>6</v>
-      </c>
       <c r="R5" s="25">
+        <v>6</v>
+      </c>
+      <c r="S5" s="25">
         <v>7</v>
       </c>
-      <c r="S5" s="25">
+      <c r="T5" s="25">
         <v>8</v>
       </c>
-      <c r="T5" s="25">
+      <c r="U5" s="25">
         <v>9</v>
       </c>
-      <c r="U5" s="25">
+      <c r="V5" s="25">
         <v>10</v>
       </c>
-      <c r="V5" s="25">
+      <c r="W5" s="25">
         <v>11</v>
       </c>
-      <c r="W5" s="25">
+      <c r="X5" s="25">
         <v>12</v>
       </c>
-      <c r="X5" s="25">
+      <c r="Y5" s="25">
         <v>13</v>
       </c>
-      <c r="Y5" s="25">
+      <c r="Z5" s="25">
         <v>14</v>
       </c>
-      <c r="Z5" s="25">
-        <v>15</v>
-      </c>
       <c r="AA5" s="25">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="25">
         <v>16</v>
       </c>
-      <c r="AB5" s="25">
+      <c r="AC5" s="25">
         <v>17</v>
       </c>
-      <c r="AC5" s="25">
+      <c r="AD5" s="25">
         <v>18</v>
       </c>
-      <c r="AD5" s="25">
-        <v>19</v>
-      </c>
       <c r="AE5" s="25">
         <v>19</v>
       </c>
@@ -3379,80 +3426,83 @@
       <c r="AI5" s="25">
         <v>19</v>
       </c>
+      <c r="AJ5" s="25">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="25">
+      <c r="J6" s="6"/>
+      <c r="K6" s="25">
         <v>1</v>
       </c>
-      <c r="K6" s="25">
+      <c r="L6" s="25">
         <v>2</v>
       </c>
-      <c r="L6" s="25">
+      <c r="M6" s="25">
         <v>3</v>
       </c>
-      <c r="M6" s="25">
+      <c r="N6" s="25">
         <v>4</v>
       </c>
-      <c r="N6" s="25">
+      <c r="O6" s="25">
         <v>5</v>
       </c>
-      <c r="O6" s="25">
-        <v>6</v>
-      </c>
       <c r="P6" s="25">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="25">
         <v>7</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="R6" s="25">
         <v>8</v>
       </c>
-      <c r="R6" s="25">
+      <c r="S6" s="25">
         <v>9</v>
       </c>
-      <c r="S6" s="25">
+      <c r="T6" s="25">
         <v>10</v>
       </c>
-      <c r="T6" s="25">
+      <c r="U6" s="25">
         <v>11</v>
       </c>
-      <c r="U6" s="25">
+      <c r="V6" s="25">
         <v>12</v>
       </c>
-      <c r="V6" s="25">
+      <c r="W6" s="25">
         <v>13</v>
       </c>
-      <c r="W6" s="25">
+      <c r="X6" s="25">
         <v>14</v>
       </c>
-      <c r="X6" s="25">
-        <v>15</v>
-      </c>
       <c r="Y6" s="25">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="25">
         <v>16</v>
       </c>
-      <c r="Z6" s="25">
+      <c r="AA6" s="25">
         <v>17</v>
       </c>
-      <c r="AA6" s="25">
+      <c r="AB6" s="25">
         <v>18</v>
       </c>
-      <c r="AB6" s="25">
-        <v>19</v>
-      </c>
       <c r="AC6" s="25">
         <v>19</v>
       </c>
@@ -3474,18 +3524,23 @@
       <c r="AI6" s="25">
         <v>19</v>
       </c>
+      <c r="AJ6" s="25">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
         <v>22</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3500,69 +3555,72 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="26">
+      <c r="S7" s="1"/>
+      <c r="T7" s="26">
         <v>1</v>
       </c>
-      <c r="T7" s="26">
+      <c r="U7" s="26">
         <v>2</v>
       </c>
-      <c r="U7" s="26">
+      <c r="V7" s="26">
         <v>3</v>
       </c>
-      <c r="V7" s="26">
+      <c r="W7" s="26">
         <v>4</v>
       </c>
-      <c r="W7" s="26">
+      <c r="X7" s="26">
         <v>5</v>
       </c>
-      <c r="X7" s="26">
-        <v>6</v>
-      </c>
       <c r="Y7" s="26">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="26">
         <v>7</v>
       </c>
-      <c r="Z7" s="26">
+      <c r="AA7" s="26">
         <v>8</v>
       </c>
-      <c r="AA7" s="26">
+      <c r="AB7" s="26">
         <v>9</v>
       </c>
-      <c r="AB7" s="26">
+      <c r="AC7" s="26">
         <v>10</v>
       </c>
-      <c r="AC7" s="26">
+      <c r="AD7" s="26">
         <v>11</v>
       </c>
-      <c r="AD7" s="26">
+      <c r="AE7" s="26">
         <v>12</v>
       </c>
-      <c r="AE7" s="26">
+      <c r="AF7" s="26">
         <v>13</v>
       </c>
-      <c r="AF7" s="26">
+      <c r="AG7" s="26">
         <v>14</v>
       </c>
-      <c r="AG7" s="26">
-        <v>15</v>
-      </c>
-      <c r="AH7" s="27">
+      <c r="AH7" s="26">
+        <v>15</v>
+      </c>
+      <c r="AI7" s="27">
         <v>16</v>
       </c>
-      <c r="AI7" s="27">
+      <c r="AJ7" s="27">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
         <v>22</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3580,225 +3638,229 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="26">
+      <c r="V8" s="1"/>
+      <c r="W8" s="26">
         <v>1</v>
       </c>
-      <c r="W8" s="26">
+      <c r="X8" s="26">
         <v>2</v>
       </c>
-      <c r="X8" s="26">
+      <c r="Y8" s="26">
         <v>3</v>
       </c>
-      <c r="Y8" s="26">
+      <c r="Z8" s="26">
         <v>4</v>
       </c>
-      <c r="Z8" s="26">
+      <c r="AA8" s="26">
         <v>5</v>
       </c>
-      <c r="AA8" s="26">
-        <v>6</v>
-      </c>
       <c r="AB8" s="26">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="26">
         <v>7</v>
       </c>
-      <c r="AC8" s="26">
+      <c r="AD8" s="26">
         <v>8</v>
       </c>
-      <c r="AD8" s="26">
+      <c r="AE8" s="26">
         <v>9</v>
       </c>
-      <c r="AE8" s="26">
+      <c r="AF8" s="26">
         <v>10</v>
       </c>
-      <c r="AF8" s="26">
+      <c r="AG8" s="26">
         <v>11</v>
       </c>
-      <c r="AG8" s="26">
+      <c r="AH8" s="26">
         <v>12</v>
       </c>
-      <c r="AH8" s="27">
+      <c r="AI8" s="27">
         <v>13</v>
       </c>
-      <c r="AI8" s="27">
+      <c r="AJ8" s="27">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25">
+        <v>2</v>
+      </c>
+      <c r="I9" s="25">
+        <v>3</v>
+      </c>
+      <c r="J9" s="25">
+        <v>4</v>
+      </c>
+      <c r="K9" s="25">
+        <v>5</v>
+      </c>
+      <c r="L9" s="25">
+        <v>6</v>
+      </c>
+      <c r="M9" s="25">
+        <v>7</v>
+      </c>
+      <c r="N9" s="25">
+        <v>8</v>
+      </c>
+      <c r="O9" s="25">
+        <v>9</v>
+      </c>
+      <c r="P9" s="25">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
+      <c r="Q9" s="25">
+        <v>11</v>
+      </c>
+      <c r="R9" s="25">
+        <v>12</v>
+      </c>
+      <c r="S9" s="25">
+        <v>13</v>
+      </c>
+      <c r="T9" s="25">
+        <v>14</v>
+      </c>
+      <c r="U9" s="25">
+        <v>15</v>
+      </c>
+      <c r="V9" s="25">
+        <v>16</v>
+      </c>
+      <c r="W9" s="25">
+        <v>17</v>
+      </c>
+      <c r="X9" s="25">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="25">
+        <v>19</v>
+      </c>
+      <c r="Z9" s="25">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="25">
+        <v>19</v>
+      </c>
+      <c r="AB9" s="25">
+        <v>19</v>
+      </c>
+      <c r="AC9" s="25">
+        <v>19</v>
+      </c>
+      <c r="AD9" s="25">
+        <v>19</v>
+      </c>
+      <c r="AE9" s="25">
+        <v>19</v>
+      </c>
+      <c r="AF9" s="25">
+        <v>19</v>
+      </c>
+      <c r="AG9" s="25">
+        <v>19</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>19</v>
+      </c>
+      <c r="AI9" s="25">
+        <v>19</v>
+      </c>
+      <c r="AJ9" s="25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6">
         <v>22</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="25">
-        <v>1</v>
-      </c>
-      <c r="G9" s="25">
-        <v>2</v>
-      </c>
-      <c r="H9" s="25">
-        <v>3</v>
-      </c>
-      <c r="I9" s="25">
-        <v>4</v>
-      </c>
-      <c r="J9" s="25">
-        <v>5</v>
-      </c>
-      <c r="K9" s="25">
-        <v>6</v>
-      </c>
-      <c r="L9" s="25">
-        <v>7</v>
-      </c>
-      <c r="M9" s="25">
-        <v>8</v>
-      </c>
-      <c r="N9" s="25">
-        <v>9</v>
-      </c>
-      <c r="O9" s="25">
-        <v>10</v>
-      </c>
-      <c r="P9" s="25">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>12</v>
-      </c>
-      <c r="R9" s="25">
-        <v>13</v>
-      </c>
-      <c r="S9" s="25">
-        <v>14</v>
-      </c>
-      <c r="T9" s="25">
-        <v>15</v>
-      </c>
-      <c r="U9" s="25">
-        <v>16</v>
-      </c>
-      <c r="V9" s="25">
-        <v>17</v>
-      </c>
-      <c r="W9" s="25">
-        <v>18</v>
-      </c>
-      <c r="X9" s="25">
-        <v>19</v>
-      </c>
-      <c r="Y9" s="25">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="25">
-        <v>19</v>
-      </c>
-      <c r="AA9" s="25">
-        <v>19</v>
-      </c>
-      <c r="AB9" s="25">
-        <v>19</v>
-      </c>
-      <c r="AC9" s="25">
-        <v>19</v>
-      </c>
-      <c r="AD9" s="25">
-        <v>19</v>
-      </c>
-      <c r="AE9" s="25">
-        <v>19</v>
-      </c>
-      <c r="AF9" s="25">
-        <v>19</v>
-      </c>
-      <c r="AG9" s="25">
-        <v>19</v>
-      </c>
-      <c r="AH9" s="25">
-        <v>19</v>
-      </c>
-      <c r="AI9" s="25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="25">
+      <c r="J10" s="6"/>
+      <c r="K10" s="25">
         <v>1</v>
       </c>
-      <c r="K10" s="25">
+      <c r="L10" s="25">
         <v>2</v>
       </c>
-      <c r="L10" s="25">
+      <c r="M10" s="25">
         <v>3</v>
       </c>
-      <c r="M10" s="25">
+      <c r="N10" s="25">
         <v>4</v>
       </c>
-      <c r="N10" s="25">
+      <c r="O10" s="25">
         <v>5</v>
       </c>
-      <c r="O10" s="25">
-        <v>6</v>
-      </c>
       <c r="P10" s="25">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="25">
         <v>7</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="R10" s="25">
         <v>8</v>
       </c>
-      <c r="R10" s="25">
+      <c r="S10" s="25">
         <v>9</v>
       </c>
-      <c r="S10" s="25">
+      <c r="T10" s="25">
         <v>10</v>
       </c>
-      <c r="T10" s="25">
+      <c r="U10" s="25">
         <v>11</v>
       </c>
-      <c r="U10" s="25">
+      <c r="V10" s="25">
         <v>12</v>
       </c>
-      <c r="V10" s="25">
+      <c r="W10" s="25">
         <v>13</v>
       </c>
-      <c r="W10" s="25">
+      <c r="X10" s="25">
         <v>14</v>
       </c>
-      <c r="X10" s="25">
-        <v>15</v>
-      </c>
       <c r="Y10" s="25">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="25">
         <v>16</v>
       </c>
-      <c r="Z10" s="25">
+      <c r="AA10" s="25">
         <v>17</v>
       </c>
-      <c r="AA10" s="25">
+      <c r="AB10" s="25">
         <v>18</v>
       </c>
-      <c r="AB10" s="25">
-        <v>19</v>
-      </c>
       <c r="AC10" s="25">
         <v>19</v>
       </c>
@@ -3820,81 +3882,84 @@
       <c r="AI10" s="25">
         <v>19</v>
       </c>
+      <c r="AJ10" s="25">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="25">
+      <c r="K11" s="6"/>
+      <c r="L11" s="25">
         <v>1</v>
       </c>
-      <c r="L11" s="25">
+      <c r="M11" s="25">
         <v>2</v>
       </c>
-      <c r="M11" s="25">
+      <c r="N11" s="25">
         <v>3</v>
       </c>
-      <c r="N11" s="25">
+      <c r="O11" s="25">
         <v>4</v>
       </c>
-      <c r="O11" s="25">
+      <c r="P11" s="25">
         <v>5</v>
       </c>
-      <c r="P11" s="25">
-        <v>6</v>
-      </c>
       <c r="Q11" s="25">
+        <v>6</v>
+      </c>
+      <c r="R11" s="25">
         <v>7</v>
       </c>
-      <c r="R11" s="25">
+      <c r="S11" s="25">
         <v>8</v>
       </c>
-      <c r="S11" s="25">
+      <c r="T11" s="25">
         <v>9</v>
       </c>
-      <c r="T11" s="25">
+      <c r="U11" s="25">
         <v>10</v>
       </c>
-      <c r="U11" s="25">
+      <c r="V11" s="25">
         <v>11</v>
       </c>
-      <c r="V11" s="25">
+      <c r="W11" s="25">
         <v>12</v>
       </c>
-      <c r="W11" s="25">
+      <c r="X11" s="25">
         <v>13</v>
       </c>
-      <c r="X11" s="25">
+      <c r="Y11" s="25">
         <v>14</v>
       </c>
-      <c r="Y11" s="25">
-        <v>15</v>
-      </c>
       <c r="Z11" s="25">
+        <v>15</v>
+      </c>
+      <c r="AA11" s="25">
         <v>16</v>
       </c>
-      <c r="AA11" s="25">
+      <c r="AB11" s="25">
         <v>17</v>
       </c>
-      <c r="AB11" s="25">
+      <c r="AC11" s="25">
         <v>18</v>
       </c>
-      <c r="AC11" s="25">
-        <v>19</v>
-      </c>
       <c r="AD11" s="25">
         <v>19</v>
       </c>
@@ -3913,185 +3978,191 @@
       <c r="AI11" s="25">
         <v>19</v>
       </c>
+      <c r="AJ11" s="25">
+        <v>19</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25">
+        <v>2</v>
+      </c>
+      <c r="G12" s="25">
+        <v>3</v>
+      </c>
+      <c r="H12" s="25">
+        <v>4</v>
+      </c>
+      <c r="I12" s="25">
+        <v>5</v>
+      </c>
+      <c r="J12" s="25">
+        <v>6</v>
+      </c>
+      <c r="K12" s="25">
+        <v>7</v>
+      </c>
+      <c r="L12" s="25">
+        <v>8</v>
+      </c>
+      <c r="M12" s="25">
+        <v>9</v>
+      </c>
+      <c r="N12" s="25">
+        <v>10</v>
+      </c>
+      <c r="O12" s="25">
+        <v>11</v>
+      </c>
+      <c r="P12" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="25">
         <v>13</v>
       </c>
-      <c r="B12" s="6">
+      <c r="R12" s="25">
+        <v>14</v>
+      </c>
+      <c r="S12" s="25">
+        <v>15</v>
+      </c>
+      <c r="T12" s="25">
+        <v>16</v>
+      </c>
+      <c r="U12" s="25">
+        <v>17</v>
+      </c>
+      <c r="V12" s="25">
+        <v>18</v>
+      </c>
+      <c r="W12" s="25">
+        <v>19</v>
+      </c>
+      <c r="X12" s="25">
+        <v>19</v>
+      </c>
+      <c r="Y12" s="25">
+        <v>19</v>
+      </c>
+      <c r="Z12" s="25">
+        <v>19</v>
+      </c>
+      <c r="AA12" s="25">
+        <v>19</v>
+      </c>
+      <c r="AB12" s="25">
+        <v>19</v>
+      </c>
+      <c r="AC12" s="25">
+        <v>19</v>
+      </c>
+      <c r="AD12" s="25">
+        <v>19</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>19</v>
+      </c>
+      <c r="AF12" s="25">
+        <v>19</v>
+      </c>
+      <c r="AG12" s="25">
+        <v>19</v>
+      </c>
+      <c r="AH12" s="25">
+        <v>19</v>
+      </c>
+      <c r="AI12" s="25">
+        <v>19</v>
+      </c>
+      <c r="AJ12" s="25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6">
         <v>22</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="25">
-        <v>1</v>
-      </c>
-      <c r="E12" s="25">
-        <v>2</v>
-      </c>
-      <c r="F12" s="25">
-        <v>3</v>
-      </c>
-      <c r="G12" s="25">
-        <v>4</v>
-      </c>
-      <c r="H12" s="25">
-        <v>5</v>
-      </c>
-      <c r="I12" s="25">
-        <v>6</v>
-      </c>
-      <c r="J12" s="25">
-        <v>7</v>
-      </c>
-      <c r="K12" s="25">
-        <v>8</v>
-      </c>
-      <c r="L12" s="25">
-        <v>9</v>
-      </c>
-      <c r="M12" s="25">
-        <v>10</v>
-      </c>
-      <c r="N12" s="25">
-        <v>11</v>
-      </c>
-      <c r="O12" s="25">
-        <v>12</v>
-      </c>
-      <c r="P12" s="25">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>14</v>
-      </c>
-      <c r="R12" s="25">
-        <v>15</v>
-      </c>
-      <c r="S12" s="25">
-        <v>16</v>
-      </c>
-      <c r="T12" s="25">
-        <v>17</v>
-      </c>
-      <c r="U12" s="25">
-        <v>18</v>
-      </c>
-      <c r="V12" s="25">
-        <v>19</v>
-      </c>
-      <c r="W12" s="25">
-        <v>19</v>
-      </c>
-      <c r="X12" s="25">
-        <v>19</v>
-      </c>
-      <c r="Y12" s="25">
-        <v>19</v>
-      </c>
-      <c r="Z12" s="25">
-        <v>19</v>
-      </c>
-      <c r="AA12" s="25">
-        <v>19</v>
-      </c>
-      <c r="AB12" s="25">
-        <v>19</v>
-      </c>
-      <c r="AC12" s="25">
-        <v>19</v>
-      </c>
-      <c r="AD12" s="25">
-        <v>19</v>
-      </c>
-      <c r="AE12" s="25">
-        <v>19</v>
-      </c>
-      <c r="AF12" s="25">
-        <v>19</v>
-      </c>
-      <c r="AG12" s="25">
-        <v>19</v>
-      </c>
-      <c r="AH12" s="25">
-        <v>19</v>
-      </c>
-      <c r="AI12" s="25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="25">
+      <c r="H13" s="6"/>
+      <c r="I13" s="25">
         <v>1</v>
       </c>
-      <c r="I13" s="25">
+      <c r="J13" s="25">
         <v>2</v>
       </c>
-      <c r="J13" s="25">
+      <c r="K13" s="25">
         <v>3</v>
       </c>
-      <c r="K13" s="25">
+      <c r="L13" s="25">
         <v>4</v>
       </c>
-      <c r="L13" s="25">
+      <c r="M13" s="25">
         <v>5</v>
       </c>
-      <c r="M13" s="25">
-        <v>6</v>
-      </c>
       <c r="N13" s="25">
+        <v>6</v>
+      </c>
+      <c r="O13" s="25">
         <v>7</v>
       </c>
-      <c r="O13" s="25">
+      <c r="P13" s="25">
         <v>8</v>
       </c>
-      <c r="P13" s="25">
+      <c r="Q13" s="25">
         <v>9</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="R13" s="25">
         <v>10</v>
       </c>
-      <c r="R13" s="25">
+      <c r="S13" s="25">
         <v>11</v>
       </c>
-      <c r="S13" s="25">
+      <c r="T13" s="25">
         <v>12</v>
       </c>
-      <c r="T13" s="25">
+      <c r="U13" s="25">
         <v>13</v>
       </c>
-      <c r="U13" s="25">
+      <c r="V13" s="25">
         <v>14</v>
       </c>
-      <c r="V13" s="25">
-        <v>15</v>
-      </c>
       <c r="W13" s="25">
+        <v>15</v>
+      </c>
+      <c r="X13" s="25">
         <v>16</v>
       </c>
-      <c r="X13" s="25">
+      <c r="Y13" s="25">
         <v>17</v>
       </c>
-      <c r="Y13" s="25">
+      <c r="Z13" s="25">
         <v>18</v>
       </c>
-      <c r="Z13" s="25">
-        <v>19</v>
-      </c>
       <c r="AA13" s="25">
         <v>19</v>
       </c>
@@ -4119,79 +4190,82 @@
       <c r="AI13" s="25">
         <v>19</v>
       </c>
+      <c r="AJ13" s="25">
+        <v>19</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6">
         <v>22</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="25">
+      <c r="I14" s="6"/>
+      <c r="J14" s="25">
         <v>1</v>
       </c>
-      <c r="J14" s="25">
+      <c r="K14" s="25">
         <v>2</v>
       </c>
-      <c r="K14" s="25">
+      <c r="L14" s="25">
         <v>3</v>
       </c>
-      <c r="L14" s="25">
+      <c r="M14" s="25">
         <v>4</v>
       </c>
-      <c r="M14" s="25">
+      <c r="N14" s="25">
         <v>5</v>
       </c>
-      <c r="N14" s="25">
-        <v>6</v>
-      </c>
       <c r="O14" s="25">
+        <v>6</v>
+      </c>
+      <c r="P14" s="25">
         <v>7</v>
       </c>
-      <c r="P14" s="25">
+      <c r="Q14" s="25">
         <v>8</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="R14" s="25">
         <v>9</v>
       </c>
-      <c r="R14" s="25">
+      <c r="S14" s="25">
         <v>10</v>
       </c>
-      <c r="S14" s="25">
+      <c r="T14" s="25">
         <v>11</v>
       </c>
-      <c r="T14" s="25">
+      <c r="U14" s="25">
         <v>12</v>
       </c>
-      <c r="U14" s="25">
+      <c r="V14" s="25">
         <v>13</v>
       </c>
-      <c r="V14" s="25">
+      <c r="W14" s="25">
         <v>14</v>
       </c>
-      <c r="W14" s="25">
-        <v>15</v>
-      </c>
       <c r="X14" s="25">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="25">
         <v>16</v>
       </c>
-      <c r="Y14" s="25">
+      <c r="Z14" s="25">
         <v>17</v>
       </c>
-      <c r="Z14" s="25">
+      <c r="AA14" s="25">
         <v>18</v>
       </c>
-      <c r="AA14" s="25">
-        <v>19</v>
-      </c>
       <c r="AB14" s="25">
         <v>19</v>
       </c>
@@ -4214,15 +4288,19 @@
         <v>19</v>
       </c>
       <c r="AI14" s="25">
+        <v>19</v>
+      </c>
+      <c r="AJ14" s="25">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:AJ1"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:AI1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4230,31 +4308,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
@@ -4284,223 +4364,228 @@
       <c r="AF1" s="31"/>
       <c r="AG1" s="31"/>
       <c r="AH1" s="31"/>
-      <c r="AI1" s="32"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="32"/>
     </row>
-    <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="29"/>
+    <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="3">
+      <c r="D2" s="29"/>
+      <c r="E2" s="3">
         <v>800</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>850</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>900</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>950</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>1000</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>1050</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>1100</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>1150</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>1200</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>1250</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>1300</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>1350</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>1400</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>1450</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>1500</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
         <v>1550</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="3">
         <v>1600</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2" s="3">
         <v>1650</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W2" s="3">
         <v>1700</v>
       </c>
-      <c r="W2" s="3">
+      <c r="X2" s="3">
         <v>1750</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Y2" s="3">
         <v>1800</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Z2" s="3">
         <v>1850</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <v>1900</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB2" s="3">
         <v>1950</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AC2" s="3">
         <v>2000</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AD2" s="3">
         <v>2050</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AE2" s="3">
         <v>2100</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AF2" s="3">
         <v>2150</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AG2" s="3">
         <v>2200</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AH2" s="3">
         <v>2250</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AI2" s="3">
         <v>2300</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AJ2" s="3">
         <v>2350</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12">
+        <v>6</v>
+      </c>
+      <c r="K3" s="12">
+        <v>7</v>
+      </c>
+      <c r="L3" s="12">
+        <v>8</v>
+      </c>
+      <c r="M3" s="12">
+        <v>9</v>
+      </c>
+      <c r="N3" s="12">
+        <v>10</v>
+      </c>
+      <c r="O3" s="12">
+        <v>11</v>
+      </c>
+      <c r="P3" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>13</v>
+      </c>
+      <c r="R3" s="12">
+        <v>14</v>
+      </c>
+      <c r="S3" s="12">
+        <v>15</v>
+      </c>
+      <c r="T3" s="12">
+        <v>16</v>
+      </c>
+      <c r="U3" s="12">
+        <v>17</v>
+      </c>
+      <c r="V3" s="12">
+        <v>18</v>
+      </c>
+      <c r="W3" s="12">
+        <v>19</v>
+      </c>
+      <c r="X3" s="12">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="12">
         <v>28</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12">
-        <v>3</v>
-      </c>
-      <c r="G3" s="12">
-        <v>4</v>
-      </c>
-      <c r="H3" s="12">
-        <v>5</v>
-      </c>
-      <c r="I3" s="12">
-        <v>6</v>
-      </c>
-      <c r="J3" s="12">
-        <v>7</v>
-      </c>
-      <c r="K3" s="12">
-        <v>8</v>
-      </c>
-      <c r="L3" s="12">
-        <v>9</v>
-      </c>
-      <c r="M3" s="12">
-        <v>10</v>
-      </c>
-      <c r="N3" s="12">
-        <v>11</v>
-      </c>
-      <c r="O3" s="12">
-        <v>12</v>
-      </c>
-      <c r="P3" s="12">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>14</v>
-      </c>
-      <c r="R3" s="12">
-        <v>15</v>
-      </c>
-      <c r="S3" s="12">
-        <v>16</v>
-      </c>
-      <c r="T3" s="12">
+      <c r="AG3" s="12">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="12">
+        <v>31</v>
+      </c>
+      <c r="AJ3" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="12">
-        <v>18</v>
-      </c>
-      <c r="V3" s="12">
-        <v>19</v>
-      </c>
-      <c r="W3" s="12">
-        <v>20</v>
-      </c>
-      <c r="X3" s="12">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="12">
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6">
         <v>22</v>
       </c>
-      <c r="Z3" s="12">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="12">
-        <v>24</v>
-      </c>
-      <c r="AB3" s="12">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="12">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="12">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="12">
-        <v>28</v>
-      </c>
-      <c r="AF3" s="12">
-        <v>29</v>
-      </c>
-      <c r="AG3" s="12">
-        <v>30</v>
-      </c>
-      <c r="AH3" s="12">
-        <v>31</v>
-      </c>
-      <c r="AI3" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4516,127 +4601,128 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="25">
+      <c r="T4" s="6"/>
+      <c r="U4" s="25">
         <v>1</v>
       </c>
-      <c r="U4" s="25">
+      <c r="V4" s="25">
         <v>2</v>
       </c>
-      <c r="V4" s="25">
+      <c r="W4" s="25">
         <v>3</v>
       </c>
-      <c r="W4" s="25">
+      <c r="X4" s="25">
         <v>4</v>
       </c>
-      <c r="X4" s="25">
+      <c r="Y4" s="25">
         <v>5</v>
       </c>
-      <c r="Y4" s="25">
-        <v>6</v>
-      </c>
       <c r="Z4" s="25">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="25">
         <v>7</v>
       </c>
-      <c r="AA4" s="25">
+      <c r="AB4" s="25">
         <v>8</v>
       </c>
-      <c r="AB4" s="25">
+      <c r="AC4" s="25">
         <v>9</v>
       </c>
-      <c r="AC4" s="25">
+      <c r="AD4" s="25">
         <v>10</v>
       </c>
-      <c r="AD4" s="25">
+      <c r="AE4" s="25">
         <v>11</v>
       </c>
-      <c r="AE4" s="25">
+      <c r="AF4" s="25">
         <v>12</v>
       </c>
-      <c r="AF4" s="25">
+      <c r="AG4" s="25">
         <v>13</v>
       </c>
-      <c r="AG4" s="25">
+      <c r="AH4" s="25">
         <v>14</v>
       </c>
-      <c r="AH4" s="25">
-        <v>15</v>
-      </c>
       <c r="AI4" s="25">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="25">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="25">
+      <c r="I5" s="6"/>
+      <c r="J5" s="25">
         <v>1</v>
       </c>
-      <c r="J5" s="25">
+      <c r="K5" s="25">
         <v>2</v>
       </c>
-      <c r="K5" s="25">
+      <c r="L5" s="25">
         <v>3</v>
       </c>
-      <c r="L5" s="25">
+      <c r="M5" s="25">
         <v>4</v>
       </c>
-      <c r="M5" s="25">
+      <c r="N5" s="25">
         <v>5</v>
       </c>
-      <c r="N5" s="25">
-        <v>6</v>
-      </c>
       <c r="O5" s="25">
+        <v>6</v>
+      </c>
+      <c r="P5" s="25">
         <v>7</v>
       </c>
-      <c r="P5" s="25">
+      <c r="Q5" s="25">
         <v>8</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="R5" s="25">
         <v>9</v>
       </c>
-      <c r="R5" s="25">
+      <c r="S5" s="25">
         <v>10</v>
       </c>
-      <c r="S5" s="25">
+      <c r="T5" s="25">
         <v>11</v>
       </c>
-      <c r="T5" s="25">
+      <c r="U5" s="25">
         <v>12</v>
       </c>
-      <c r="U5" s="25">
+      <c r="V5" s="25">
         <v>13</v>
       </c>
-      <c r="V5" s="25">
+      <c r="W5" s="25">
         <v>14</v>
       </c>
-      <c r="W5" s="25">
-        <v>15</v>
-      </c>
       <c r="X5" s="25">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="25">
         <v>16</v>
       </c>
-      <c r="Y5" s="25">
+      <c r="Z5" s="25">
         <v>17</v>
       </c>
-      <c r="Z5" s="25">
+      <c r="AA5" s="25">
         <v>18</v>
       </c>
-      <c r="AA5" s="25">
-        <v>19</v>
-      </c>
       <c r="AB5" s="25">
         <v>19</v>
       </c>
@@ -4661,78 +4747,81 @@
       <c r="AI5" s="25">
         <v>19</v>
       </c>
+      <c r="AJ5" s="25">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="25">
+      <c r="H6" s="6"/>
+      <c r="I6" s="25">
         <v>1</v>
       </c>
-      <c r="I6" s="25">
+      <c r="J6" s="25">
         <v>2</v>
       </c>
-      <c r="J6" s="25">
+      <c r="K6" s="25">
         <v>3</v>
       </c>
-      <c r="K6" s="25">
+      <c r="L6" s="25">
         <v>4</v>
       </c>
-      <c r="L6" s="25">
+      <c r="M6" s="25">
         <v>5</v>
       </c>
-      <c r="M6" s="25">
-        <v>6</v>
-      </c>
       <c r="N6" s="25">
+        <v>6</v>
+      </c>
+      <c r="O6" s="25">
         <v>7</v>
       </c>
-      <c r="O6" s="25">
+      <c r="P6" s="25">
         <v>8</v>
       </c>
-      <c r="P6" s="25">
+      <c r="Q6" s="25">
         <v>9</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="R6" s="25">
         <v>10</v>
       </c>
-      <c r="R6" s="25">
+      <c r="S6" s="25">
         <v>11</v>
       </c>
-      <c r="S6" s="25">
+      <c r="T6" s="25">
         <v>12</v>
       </c>
-      <c r="T6" s="25">
+      <c r="U6" s="25">
         <v>13</v>
       </c>
-      <c r="U6" s="25">
+      <c r="V6" s="25">
         <v>14</v>
       </c>
-      <c r="V6" s="25">
-        <v>15</v>
-      </c>
       <c r="W6" s="25">
+        <v>15</v>
+      </c>
+      <c r="X6" s="25">
         <v>16</v>
       </c>
-      <c r="X6" s="25">
+      <c r="Y6" s="25">
         <v>17</v>
       </c>
-      <c r="Y6" s="25">
+      <c r="Z6" s="25">
         <v>18</v>
       </c>
-      <c r="Z6" s="25">
-        <v>19</v>
-      </c>
       <c r="AA6" s="25">
         <v>19</v>
       </c>
@@ -4760,18 +4849,23 @@
       <c r="AI6" s="25">
         <v>19</v>
       </c>
+      <c r="AJ6" s="25">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6">
         <v>22</v>
       </c>
-      <c r="B7" s="6">
-        <v>22</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -4786,69 +4880,72 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="25">
+      <c r="S7" s="6"/>
+      <c r="T7" s="25">
         <v>1</v>
       </c>
-      <c r="T7" s="25">
+      <c r="U7" s="25">
         <v>2</v>
       </c>
-      <c r="U7" s="25">
+      <c r="V7" s="25">
         <v>3</v>
       </c>
-      <c r="V7" s="25">
+      <c r="W7" s="25">
         <v>4</v>
       </c>
-      <c r="W7" s="25">
+      <c r="X7" s="25">
         <v>5</v>
       </c>
-      <c r="X7" s="25">
-        <v>6</v>
-      </c>
       <c r="Y7" s="25">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="25">
         <v>7</v>
       </c>
-      <c r="Z7" s="25">
+      <c r="AA7" s="25">
         <v>8</v>
       </c>
-      <c r="AA7" s="25">
+      <c r="AB7" s="25">
         <v>9</v>
       </c>
-      <c r="AB7" s="25">
+      <c r="AC7" s="25">
         <v>10</v>
       </c>
-      <c r="AC7" s="25">
+      <c r="AD7" s="25">
         <v>11</v>
       </c>
-      <c r="AD7" s="25">
+      <c r="AE7" s="25">
         <v>12</v>
       </c>
-      <c r="AE7" s="25">
+      <c r="AF7" s="25">
         <v>13</v>
       </c>
-      <c r="AF7" s="24">
+      <c r="AG7" s="24">
         <v>14</v>
       </c>
-      <c r="AG7" s="25">
-        <v>15</v>
-      </c>
-      <c r="AH7" s="24">
+      <c r="AH7" s="25">
+        <v>15</v>
+      </c>
+      <c r="AI7" s="24">
         <v>16</v>
       </c>
-      <c r="AI7" s="25">
+      <c r="AJ7" s="25">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -4865,121 +4962,122 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-      <c r="U8" s="25">
+      <c r="U8" s="6"/>
+      <c r="V8" s="25">
         <v>1</v>
       </c>
-      <c r="V8" s="25">
+      <c r="W8" s="25">
         <v>2</v>
       </c>
-      <c r="W8" s="25">
+      <c r="X8" s="25">
         <v>3</v>
       </c>
-      <c r="X8" s="25">
+      <c r="Y8" s="25">
         <v>4</v>
       </c>
-      <c r="Y8" s="25">
+      <c r="Z8" s="25">
         <v>5</v>
       </c>
-      <c r="Z8" s="25">
-        <v>6</v>
-      </c>
       <c r="AA8" s="25">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="25">
         <v>7</v>
       </c>
-      <c r="AB8" s="25">
+      <c r="AC8" s="25">
         <v>8</v>
       </c>
-      <c r="AC8" s="25">
+      <c r="AD8" s="25">
         <v>9</v>
       </c>
-      <c r="AD8" s="25">
+      <c r="AE8" s="25">
         <v>10</v>
       </c>
-      <c r="AE8" s="25">
+      <c r="AF8" s="25">
         <v>11</v>
       </c>
-      <c r="AF8" s="24">
+      <c r="AG8" s="24">
         <v>12</v>
       </c>
-      <c r="AG8" s="25">
+      <c r="AH8" s="25">
         <v>13</v>
       </c>
-      <c r="AH8" s="24">
+      <c r="AI8" s="24">
         <v>14</v>
       </c>
-      <c r="AI8" s="25">
+      <c r="AJ8" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6">
         <v>22</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25">
+        <v>2</v>
+      </c>
+      <c r="I9" s="25">
+        <v>3</v>
+      </c>
+      <c r="J9" s="25">
+        <v>4</v>
+      </c>
+      <c r="K9" s="25">
+        <v>5</v>
+      </c>
+      <c r="L9" s="25">
+        <v>6</v>
+      </c>
+      <c r="M9" s="25">
         <v>7</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="25">
-        <v>1</v>
-      </c>
-      <c r="G9" s="25">
-        <v>2</v>
-      </c>
-      <c r="H9" s="25">
-        <v>3</v>
-      </c>
-      <c r="I9" s="25">
-        <v>4</v>
-      </c>
-      <c r="J9" s="25">
-        <v>5</v>
-      </c>
-      <c r="K9" s="25">
-        <v>6</v>
-      </c>
-      <c r="L9" s="25">
-        <v>7</v>
-      </c>
-      <c r="M9" s="25">
+      <c r="N9" s="25">
         <v>8</v>
       </c>
-      <c r="N9" s="25">
+      <c r="O9" s="25">
         <v>9</v>
       </c>
-      <c r="O9" s="25">
+      <c r="P9" s="25">
         <v>10</v>
       </c>
-      <c r="P9" s="25">
+      <c r="Q9" s="25">
         <v>11</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="R9" s="25">
         <v>12</v>
       </c>
-      <c r="R9" s="25">
+      <c r="S9" s="25">
         <v>13</v>
       </c>
-      <c r="S9" s="25">
+      <c r="T9" s="25">
         <v>14</v>
       </c>
-      <c r="T9" s="25">
-        <v>15</v>
-      </c>
       <c r="U9" s="25">
+        <v>15</v>
+      </c>
+      <c r="V9" s="25">
         <v>16</v>
       </c>
-      <c r="V9" s="25">
+      <c r="W9" s="25">
         <v>17</v>
       </c>
-      <c r="W9" s="25">
+      <c r="X9" s="25">
         <v>18</v>
       </c>
-      <c r="X9" s="25">
-        <v>19</v>
-      </c>
       <c r="Y9" s="25">
         <v>19</v>
       </c>
@@ -5013,18 +5111,23 @@
       <c r="AI9" s="25">
         <v>19</v>
       </c>
+      <c r="AJ9" s="25">
+        <v>19</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -5042,60 +5145,63 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="25">
+      <c r="V10" s="6"/>
+      <c r="W10" s="25">
         <v>1</v>
       </c>
-      <c r="W10" s="25">
+      <c r="X10" s="25">
         <v>2</v>
       </c>
-      <c r="X10" s="25">
+      <c r="Y10" s="25">
         <v>3</v>
       </c>
-      <c r="Y10" s="25">
+      <c r="Z10" s="25">
         <v>4</v>
       </c>
-      <c r="Z10" s="25">
+      <c r="AA10" s="25">
         <v>5</v>
       </c>
-      <c r="AA10" s="25">
-        <v>6</v>
-      </c>
       <c r="AB10" s="25">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="25">
         <v>7</v>
       </c>
-      <c r="AC10" s="25">
+      <c r="AD10" s="25">
         <v>8</v>
       </c>
-      <c r="AD10" s="25">
+      <c r="AE10" s="25">
         <v>9</v>
       </c>
-      <c r="AE10" s="25">
+      <c r="AF10" s="25">
         <v>10</v>
       </c>
-      <c r="AF10" s="25">
+      <c r="AG10" s="25">
         <v>11</v>
       </c>
-      <c r="AG10" s="25">
+      <c r="AH10" s="25">
         <v>12</v>
       </c>
-      <c r="AH10" s="25">
+      <c r="AI10" s="25">
         <v>13</v>
       </c>
-      <c r="AI10" s="25">
+      <c r="AJ10" s="25">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -5111,61 +5217,63 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="25">
+      <c r="T11" s="6"/>
+      <c r="U11" s="25">
         <v>1</v>
       </c>
-      <c r="U11" s="25">
+      <c r="V11" s="25">
         <v>2</v>
       </c>
-      <c r="V11" s="25">
+      <c r="W11" s="25">
         <v>3</v>
       </c>
-      <c r="W11" s="25">
+      <c r="X11" s="25">
         <v>4</v>
       </c>
-      <c r="X11" s="25">
+      <c r="Y11" s="25">
         <v>5</v>
       </c>
-      <c r="Y11" s="25">
-        <v>6</v>
-      </c>
       <c r="Z11" s="25">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="25">
         <v>7</v>
       </c>
-      <c r="AA11" s="25">
+      <c r="AB11" s="25">
         <v>8</v>
       </c>
-      <c r="AB11" s="25">
+      <c r="AC11" s="25">
         <v>9</v>
       </c>
-      <c r="AC11" s="25">
+      <c r="AD11" s="25">
         <v>10</v>
       </c>
-      <c r="AD11" s="25">
+      <c r="AE11" s="25">
         <v>11</v>
       </c>
-      <c r="AE11" s="25">
+      <c r="AF11" s="25">
         <v>12</v>
       </c>
-      <c r="AF11" s="25">
+      <c r="AG11" s="25">
         <v>13</v>
       </c>
-      <c r="AG11" s="25">
+      <c r="AH11" s="25">
         <v>14</v>
       </c>
-      <c r="AH11" s="25">
-        <v>15</v>
-      </c>
       <c r="AI11" s="25">
+        <v>15</v>
+      </c>
+      <c r="AJ11" s="25">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:AJ1"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:AI1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
